--- a/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$39</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="312">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T12:56:11-05:00</t>
+    <t>2022-04-19T13:14:50-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,7 +256,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}organization-or-participatingOrganization:NatlDirOrganizationAffiliation.organization or  NatlDirOrganizationAffiliation.participatingOrganization {organization.exists() or participatingOrganization.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}organization-or-participatingOrganization:NatlDirEndpointQryOrganizationAffiliation.organization or  NatlDirEndpointQryOrganizationAffiliation.participatingOrganization {organization.exists() or participatingOrganization.exists()}</t>
   </si>
   <si>
     <t>Role</t>
@@ -598,7 +598,7 @@
     <t>qualification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/qualification}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/qualification}
 </t>
   </si>
   <si>
@@ -852,7 +852,7 @@
     <t>OrganizationAffiliation.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -880,7 +880,7 @@
     <t>OrganizationAffiliation.network</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Network)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Network)
 </t>
   </si>
   <si>
@@ -899,7 +899,7 @@
     <t>Definition of the role the participatingOrganization plays in the association.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/OrganizationAffiliationRoleVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/OrganizationAffiliationRoleVS</t>
   </si>
   <si>
     <t>.code</t>
@@ -914,7 +914,7 @@
     <t>Specific specialty of the participatingOrganization in the context of the role.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/SpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/SpecialtiesVS</t>
   </si>
   <si>
     <t>.player.HealthCareProvider[@classCode = 'PROV'].code</t>
@@ -923,7 +923,7 @@
     <t>OrganizationAffiliation.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)
 </t>
   </si>
   <si>
@@ -942,7 +942,7 @@
     <t>OrganizationAffiliation.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-HealthcareService)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-HealthcareService)
 </t>
   </si>
   <si>
@@ -974,123 +974,10 @@
     <t>.telecom</t>
   </si>
   <si>
-    <t>OrganizationAffiliation.telecom.id</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.extension</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
     <t>OrganizationAffiliation.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
 </t>
   </si>
   <si>
@@ -1417,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK46"/>
+  <dimension ref="A1:AK39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1450,7 +1337,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="78.109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.8046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -3460,7 +3347,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>196</v>
       </c>
@@ -3476,7 +3363,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3880,7 +3767,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>215</v>
       </c>
@@ -3896,7 +3783,7 @@
         <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4094,7 +3981,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>232</v>
       </c>
@@ -4110,7 +3997,7 @@
         <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4302,7 +4189,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>245</v>
       </c>
@@ -4318,7 +4205,7 @@
         <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4407,7 +4294,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>252</v>
       </c>
@@ -4423,7 +4310,7 @@
         <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4516,7 +4403,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>262</v>
       </c>
@@ -4532,7 +4419,7 @@
         <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -4827,7 +4714,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>277</v>
       </c>
@@ -4843,7 +4730,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -4930,7 +4817,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>281</v>
       </c>
@@ -4946,7 +4833,7 @@
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5031,7 +4918,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>286</v>
       </c>
@@ -5047,7 +4934,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5235,7 +5122,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>297</v>
       </c>
@@ -5251,7 +5138,7 @@
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5338,7 +5225,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>302</v>
       </c>
@@ -5354,7 +5241,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5443,7 +5330,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>308</v>
       </c>
@@ -5456,10 +5343,10 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5468,13 +5355,13 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>309</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>96</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>97</v>
+        <v>311</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5525,19 +5412,19 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>99</v>
@@ -5546,741 +5433,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AK46">
+  <autoFilter ref="A1:AK39">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6290,7 +5444,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
+  <conditionalFormatting sqref="A2:AI38">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T21:32:28-05:00</t>
+    <t>2022-04-24T12:38:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T12:38:40-05:00</t>
+    <t>2022-04-25T03:17:22-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T03:17:22-05:00</t>
+    <t>2022-04-25T04:33:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T04:33:18-05:00</t>
+    <t>2022-04-25T04:38:22-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T04:38:22-05:00</t>
+    <t>2022-05-01T20:03:30-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T20:03:30-05:00</t>
+    <t>2022-05-01T20:29:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T20:29:13-05:00</t>
+    <t>2022-05-04T12:20:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T12:20:47-05:00</t>
+    <t>2022-06-03T13:24:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T13:24:40-05:00</t>
+    <t>2022-06-15T12:17:27-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T12:17:27-04:00</t>
+    <t>2022-07-10T21:26:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3767,7 +3767,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>215</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -3981,7 +3981,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>232</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>

--- a/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T21:26:18-05:00</t>
+    <t>2022-07-15T12:22:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1313,43 +1313,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.6640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.0390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.5390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="134.74609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="135.37109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="75.609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.6640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.8046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="44.5390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T12:22:10-04:00</t>
+    <t>2022-07-15T15:24:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
